--- a/manchu-korean.xlsx
+++ b/manchu-korean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vv137/Repos/manchu-dict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCDCA3F-E5B7-4847-9EE6-C7E9C0C49448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88E6996-C856-474C-8778-A26B44EBB3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32000" yWindow="500" windowWidth="32000" windowHeight="35500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -38,10 +38,400 @@
     <t>meaning_ko</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A FA SERE ONGGOLO</t>
+  </si>
+  <si>
+    <t>a si</t>
+  </si>
+  <si>
+    <t>A SI</t>
+  </si>
+  <si>
+    <t>a ta</t>
+  </si>
+  <si>
+    <t>A TA</t>
+  </si>
+  <si>
+    <t>aba</t>
+  </si>
+  <si>
+    <t>ABA</t>
+  </si>
+  <si>
+    <t>abalabumbi</t>
+  </si>
+  <si>
+    <t>ABALABUMBI</t>
+  </si>
+  <si>
+    <t>abalambi</t>
+  </si>
+  <si>
+    <t>ABALAMBI</t>
+  </si>
+  <si>
+    <t>abalanambi</t>
+  </si>
+  <si>
+    <t>ABALANAMBI</t>
+  </si>
+  <si>
+    <t>abalanjimbi</t>
+  </si>
+  <si>
+    <t>ABALANJIMBI</t>
+  </si>
+  <si>
+    <t>abdaha</t>
+  </si>
+  <si>
+    <t>ABDAHA</t>
+  </si>
+  <si>
+    <t>abdahanambi</t>
+  </si>
+  <si>
+    <t>ABDAHANAMBI</t>
+  </si>
+  <si>
+    <t>abdangga</t>
+  </si>
+  <si>
+    <t>ABDANGGA</t>
+  </si>
+  <si>
+    <t>abdari</t>
+  </si>
+  <si>
+    <t>ABDARI</t>
+  </si>
+  <si>
+    <t>abgari</t>
+  </si>
+  <si>
+    <t>ABGARI</t>
+  </si>
+  <si>
     <t>manchu</t>
   </si>
   <si>
     <t>translation_ko</t>
+  </si>
+  <si>
+    <t>A -I BUKDAN</t>
+  </si>
+  <si>
+    <t>A JIJUN -I ACANGGA</t>
+  </si>
+  <si>
+    <t>A JILGAN</t>
+  </si>
+  <si>
+    <t>ABA BARGIYAMBI</t>
+  </si>
+  <si>
+    <t>ABA SAHA</t>
+  </si>
+  <si>
+    <t>ABA SARAMBI</t>
+  </si>
+  <si>
+    <t>ABA SINDAMBI</t>
+  </si>
+  <si>
+    <t>ABA TUCIMBI</t>
+  </si>
+  <si>
+    <t>자아(字牙). 만주 문자에서 한쪽으로 튀어나온 획.</t>
+  </si>
+  <si>
+    <t>A E</t>
+  </si>
+  <si>
+    <t>양(陽)과 음(陰).</t>
+  </si>
+  <si>
+    <t>A -I JALAN</t>
+  </si>
+  <si>
+    <t>접은 종이의 바깥 면, 접은 종이의 표면. 양구(陽扣).</t>
+  </si>
+  <si>
+    <t>이 세상, 현세. 陽世.</t>
+  </si>
+  <si>
+    <t>A -I TON</t>
+  </si>
+  <si>
+    <t>양수. 陽數.</t>
+  </si>
+  <si>
+    <t>양(陽). 음양(陰陽)의 양(陽).</t>
+  </si>
+  <si>
+    <t>A JIJUN</t>
+  </si>
+  <si>
+    <t>양각 글자. 陽文.</t>
+  </si>
+  <si>
+    <t>양각 글자의 합부(合符). 陽文合符. 구리로 만들어 內府에 보관하며 밤에 城門을 통행하기 위해 휴대함.</t>
+  </si>
+  <si>
+    <t>[음악] 양성(陽聲). 十二律가운데서 六律의 소리.</t>
+  </si>
+  <si>
+    <t>아. 어. 놀라거나 대답할 때 내는 소리.</t>
+  </si>
+  <si>
+    <t>亞의 음사.</t>
+  </si>
+  <si>
+    <t>A U</t>
+  </si>
+  <si>
+    <t>[LA] AVE. AVE MARIA(亞物瑪利亞)의 AVE.</t>
+  </si>
+  <si>
+    <t>A SI SEME</t>
+  </si>
+  <si>
+    <t>구구. (닭을 쫓거나 부를 때 내는 소리.)</t>
+  </si>
+  <si>
+    <t>왁자지껄. (시끄러운 분위기를 내는 소리.)</t>
+  </si>
+  <si>
+    <t>구구 하며. / 왁자지껄하게.</t>
+  </si>
+  <si>
+    <t>A TA SEME</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>예예, 그래그래. 놀라거나 대답할 때 내는 소리.</t>
+  </si>
+  <si>
+    <t>ABA ABALAMBI</t>
+  </si>
+  <si>
+    <t>몰이사냥, 포위 수렵. 圍獵.</t>
+  </si>
+  <si>
+    <t>몰이사냥하다, 몰이사냥의 포위 대열을 배치하다. 打圍.</t>
+  </si>
+  <si>
+    <t>몰이사냥을 끝내다, 몰이사냥의 포위 대열을 거두어들이다. 收圍.</t>
+  </si>
+  <si>
+    <t>ABA DE TUCIBUMBI</t>
+  </si>
+  <si>
+    <t>몰이사냥에 보내다.</t>
+  </si>
+  <si>
+    <t>ABA HOIHAN</t>
+  </si>
+  <si>
+    <t>수렵장, 사냥터. 圍場.</t>
+  </si>
+  <si>
+    <t>ABA -I BA</t>
+  </si>
+  <si>
+    <t>몰이사냥. =`aba`.</t>
+  </si>
+  <si>
+    <t>A'니 'FA'니 하기 전에, 누구보다 먼저, 가장 먼저. =`afanggala`.</t>
+  </si>
+  <si>
+    <t>어디, 어느 곳, 어디 있는가. =`aiba`.</t>
+  </si>
+  <si>
+    <t>포위 대열을 펼치다, 사냥의 포위 대열을 두 방향으로 벌려 가다. 撒圍.</t>
+  </si>
+  <si>
+    <t>포위 대열을 치다, 몰이사냥의 포위 대열의 중앙부에서 양끝으로 한 사람씩 나와서 兩翼을 만들어 가다. 放圍.</t>
+  </si>
+  <si>
+    <t>몰이사냥을 가다.</t>
+  </si>
+  <si>
+    <t>ABA NIYALMA</t>
+  </si>
+  <si>
+    <t>몰이사냥을 하는 사람.</t>
+  </si>
+  <si>
+    <t>BEILE ABA</t>
+  </si>
+  <si>
+    <t>Beile는 어디 있는가?</t>
+  </si>
+  <si>
+    <t>abaga</t>
+  </si>
+  <si>
+    <t>ABAGA</t>
+  </si>
+  <si>
+    <t>abaganar</t>
+  </si>
+  <si>
+    <t>ABAGANAR</t>
+  </si>
+  <si>
+    <t>阿巴噶. 내몽고의 部의 하나. 청대 2旗로 편제됨. Abaqa ayimaγ. 몽골어로 '부계 혈통을 잇는 사람'이라는 뜻에서 유래함. 칭기스칸의 동생 벨구테이(別里古台, Belgutei)의 후손임.</t>
+  </si>
+  <si>
+    <t>阿巴哈納爾. 내몽고의 部의 하나. 청대 2旗로 편제됨. Abaqanar ayimaγ. 만주어로 Abahanar라고도 함. 칭기스칸의 동생 벨구테이(別里古台, Belgutei)의 후손임.</t>
+  </si>
+  <si>
+    <t>abai</t>
+  </si>
+  <si>
+    <t>ABAI</t>
+  </si>
+  <si>
+    <t>(몽) 여동생. 妹.</t>
+  </si>
+  <si>
+    <t>Abai</t>
+  </si>
+  <si>
+    <t>(인명) 鎮國勤敏公 阿拜. 청태조의 3남. 清史稿/卷217 참고.</t>
+  </si>
+  <si>
+    <t>abalahai</t>
+  </si>
+  <si>
+    <t>(`abalambi`의 사동형) 몰이사냥으 하게 하다.</t>
+  </si>
+  <si>
+    <t>ABALAHAI</t>
+  </si>
+  <si>
+    <t>(`abalambi`의 부사형) 몰이사냥하면서.</t>
+  </si>
+  <si>
+    <t>몰이사냥하다.</t>
+  </si>
+  <si>
+    <t>ABALAME GENEMBI</t>
+  </si>
+  <si>
+    <t>몰이사냥하러 가다.</t>
+  </si>
+  <si>
+    <t>ABALAME YABUMBI</t>
+  </si>
+  <si>
+    <t>KAME ABALAMBI</t>
+  </si>
+  <si>
+    <t>겨울 사냥을 하다. 冬狩.</t>
+  </si>
+  <si>
+    <t>SONJOME ABALAMBI</t>
+  </si>
+  <si>
+    <t>봄에 임신하지 않은 짐승을 골라서 사냥하다, 봄 사냥을 하다. 春蒐.</t>
+  </si>
+  <si>
+    <t>ULUN GIDAMBI</t>
+  </si>
+  <si>
+    <t>여름 사냥을 하다, 여름에 곡물을 황폐하게 만드는 짐승을 잡다. 夏苗.</t>
+  </si>
+  <si>
+    <t>WAME ABALAMBI</t>
+  </si>
+  <si>
+    <t>가을 사냥을 하다. 秋獮. =`sahadambi`.</t>
+  </si>
+  <si>
+    <t>몰이사냥하러 가다, 가서 물이사냥하다.</t>
+  </si>
+  <si>
+    <t>abalandumbi</t>
+  </si>
+  <si>
+    <t>ABALANDUMBI</t>
+  </si>
+  <si>
+    <t>일제히 몰이사냥하다. =`abalanumbi`.</t>
+  </si>
+  <si>
+    <t>몰이사냥하러 오다, 와서 몰이사냥하다.</t>
+  </si>
+  <si>
+    <t>abalanumbi</t>
+  </si>
+  <si>
+    <t>ABALANUMBI</t>
+  </si>
+  <si>
+    <t>일제히 몰이사냥하다. =`abalandumbi`.</t>
+  </si>
+  <si>
+    <t>Abatai</t>
+  </si>
+  <si>
+    <t>ABATAI</t>
+  </si>
+  <si>
+    <t>(인명) 饒餘敏郡王 阿巴泰. 청태조의 7남. 清史稿/卷217 참고.</t>
+  </si>
+  <si>
+    <t>잎. 葉.</t>
+  </si>
+  <si>
+    <t>싹트다, 싹이 나다.</t>
+  </si>
+  <si>
+    <t>abdalabumbi</t>
+  </si>
+  <si>
+    <t>ABDALABUMBI</t>
+  </si>
+  <si>
+    <t>(`abdalambi`의 사동형) 꺾어 취하게 하다.</t>
+  </si>
+  <si>
+    <t>책(冊). 책봉(冊封)하거나 조서(詔書)를 내릴 때 사용하며 접은 형태임.</t>
+  </si>
+  <si>
+    <t>잎이 큰.</t>
+  </si>
+  <si>
+    <t>abdarakv</t>
+  </si>
+  <si>
+    <t>ABDARAKV</t>
+  </si>
+  <si>
+    <t>(`abdambi`의 부정형) 꺾지 않다, 꺾지 않는.</t>
+  </si>
+  <si>
+    <t>(식물) 상수리나무. 婆蘿柯, 柞樹.</t>
+  </si>
+  <si>
+    <t>(지명) 阿布達里崗. `abdari ala`. 압록강의 북쪽에 위치함. 랴오닝성 환런 만족 자치현에 위치함.</t>
+  </si>
+  <si>
+    <t>한가한, 일이 없는. 임관(任官)하지 않고 한거(閑居)하는.</t>
   </si>
 </sst>
 </file>
@@ -77,8 +467,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -412,6 +803,550 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -419,9 +1354,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -435,10 +1372,318 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/manchu-korean.xlsx
+++ b/manchu-korean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vv137/Repos/manchu-dict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88E6996-C856-474C-8778-A26B44EBB3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F1116D-A0EE-944B-B700-265469990D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32000" yWindow="500" windowWidth="32000" windowHeight="35500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="254">
   <si>
     <t>id</t>
   </si>
@@ -119,6 +119,234 @@
     <t>ABGARI</t>
   </si>
   <si>
+    <t>abida</t>
+  </si>
+  <si>
+    <t>ABIDA</t>
+  </si>
+  <si>
+    <t>abide</t>
+  </si>
+  <si>
+    <t>ABIDE</t>
+  </si>
+  <si>
+    <t>abimbi</t>
+  </si>
+  <si>
+    <t>ABIMBI</t>
+  </si>
+  <si>
+    <t>abishvn</t>
+  </si>
+  <si>
+    <t>ABISHVN</t>
+  </si>
+  <si>
+    <t>abixaha dabixaha</t>
+  </si>
+  <si>
+    <t>ABIXAHA DABIXAHA</t>
+  </si>
+  <si>
+    <t>abka</t>
+  </si>
+  <si>
+    <t>ABKA</t>
+  </si>
+  <si>
+    <t>abkambi</t>
+  </si>
+  <si>
+    <t>ABKAMBI</t>
+  </si>
+  <si>
+    <t>abkana</t>
+  </si>
+  <si>
+    <t>ABKANA</t>
+  </si>
+  <si>
+    <t>abkawaru</t>
+  </si>
+  <si>
+    <t>ABKAWARU</t>
+  </si>
+  <si>
+    <t>absa</t>
+  </si>
+  <si>
+    <t>ABSA</t>
+  </si>
+  <si>
+    <t>absalan</t>
+  </si>
+  <si>
+    <t>ABSALAN</t>
+  </si>
+  <si>
+    <t>absambi</t>
+  </si>
+  <si>
+    <t>ABSAMBI</t>
+  </si>
+  <si>
+    <t>absari</t>
+  </si>
+  <si>
+    <t>ABSARI</t>
+  </si>
+  <si>
+    <t>absi</t>
+  </si>
+  <si>
+    <t>ABSI</t>
+  </si>
+  <si>
+    <t>absimbi</t>
+  </si>
+  <si>
+    <t>ABSIMBI</t>
+  </si>
+  <si>
+    <t>abtajambi</t>
+  </si>
+  <si>
+    <t>ABTAJAMBI</t>
+  </si>
+  <si>
+    <t>abtalabumbi</t>
+  </si>
+  <si>
+    <t>ABTALABUMBI</t>
+  </si>
+  <si>
+    <t>abtalambi</t>
+  </si>
+  <si>
+    <t>ABTALAMBI</t>
+  </si>
+  <si>
+    <t>abtarambi</t>
+  </si>
+  <si>
+    <t>ABTARAMBI</t>
+  </si>
+  <si>
+    <t>abu</t>
+  </si>
+  <si>
+    <t>ABU</t>
+  </si>
+  <si>
+    <t>abuha</t>
+  </si>
+  <si>
+    <t>ABUHA</t>
+  </si>
+  <si>
+    <t>abulimbi</t>
+  </si>
+  <si>
+    <t>ABULIMBI</t>
+  </si>
+  <si>
+    <t>abuna</t>
+  </si>
+  <si>
+    <t>ABUNA</t>
+  </si>
+  <si>
+    <t>aburambi</t>
+  </si>
+  <si>
+    <t>ABURAMBI</t>
+  </si>
+  <si>
+    <t>aburanambi</t>
+  </si>
+  <si>
+    <t>ABURANAMBI</t>
+  </si>
+  <si>
+    <t>aburi</t>
+  </si>
+  <si>
+    <t>ABURI</t>
+  </si>
+  <si>
+    <t>acabubumbi</t>
+  </si>
+  <si>
+    <t>ACABUBUMBI</t>
+  </si>
+  <si>
+    <t>acabuki</t>
+  </si>
+  <si>
+    <t>ACABUKI</t>
+  </si>
+  <si>
+    <t>acabukv</t>
+  </si>
+  <si>
+    <t>ACABUKV</t>
+  </si>
+  <si>
+    <t>acabumbi</t>
+  </si>
+  <si>
+    <t>ACABUMBI</t>
+  </si>
+  <si>
+    <t>acabun</t>
+  </si>
+  <si>
+    <t>ACABUN</t>
+  </si>
+  <si>
+    <t>acabungga</t>
+  </si>
+  <si>
+    <t>ACABUNGGA</t>
+  </si>
+  <si>
+    <t>acalambi</t>
+  </si>
+  <si>
+    <t>ACALAMBI</t>
+  </si>
+  <si>
+    <t>acambi</t>
+  </si>
+  <si>
+    <t>ACAMBI</t>
+  </si>
+  <si>
+    <t>acamjabumbi</t>
+  </si>
+  <si>
+    <t>ACAMJABUMBI</t>
+  </si>
+  <si>
+    <t>acamjambi</t>
+  </si>
+  <si>
+    <t>ACAMJAMBI</t>
+  </si>
+  <si>
+    <t>acamjangga</t>
+  </si>
+  <si>
+    <t>ACAMJANGGA</t>
+  </si>
+  <si>
+    <t>acan</t>
+  </si>
+  <si>
+    <t>ACAN</t>
+  </si>
+  <si>
     <t>manchu</t>
   </si>
   <si>
@@ -305,9 +533,6 @@
     <t>ABAI</t>
   </si>
   <si>
-    <t>(몽) 여동생. 妹.</t>
-  </si>
-  <si>
     <t>Abai</t>
   </si>
   <si>
@@ -432,6 +657,132 @@
   </si>
   <si>
     <t>한가한, 일이 없는. 임관(任官)하지 않고 한거(閑居)하는.</t>
+  </si>
+  <si>
+    <t>[SA] amita. 阿彌陀.</t>
+  </si>
+  <si>
+    <t>[MN] 여동생. 妹.</t>
+  </si>
+  <si>
+    <t>어느 곳으로, 어디로, 어디에, 어디에서. =`aibide`.</t>
+  </si>
+  <si>
+    <t>abidzi</t>
+  </si>
+  <si>
+    <t>abisik</t>
+  </si>
+  <si>
+    <t>abkasaru</t>
+  </si>
+  <si>
+    <t>absilan</t>
+  </si>
+  <si>
+    <t>abtakvlambi</t>
+  </si>
+  <si>
+    <t>abuci</t>
+  </si>
+  <si>
+    <t>aburingge</t>
+  </si>
+  <si>
+    <t>ABIDZI</t>
+  </si>
+  <si>
+    <t>ABISIK</t>
+  </si>
+  <si>
+    <t>ABKASARU</t>
+  </si>
+  <si>
+    <t>ABSILAN</t>
+  </si>
+  <si>
+    <t>ABTAKVLAMBI</t>
+  </si>
+  <si>
+    <t>ABUCI</t>
+  </si>
+  <si>
+    <t>ABURINGGE</t>
+  </si>
+  <si>
+    <t>살이 붓다. =`aibimbi`.</t>
+  </si>
+  <si>
+    <t>부은, 부어오른. =`aibishvn`.</t>
+  </si>
+  <si>
+    <t>서로 간섭하지 않는, 관계가 먼, 냉담한, 무정한.</t>
+  </si>
+  <si>
+    <t>하늘, 하느님.</t>
+  </si>
+  <si>
+    <t>가장 높은 곳.</t>
+  </si>
+  <si>
+    <t>날씨.</t>
+  </si>
+  <si>
+    <t>놀라거나 괴이한 일을 당했을 때 하는 말.</t>
+  </si>
+  <si>
+    <t>(`agambi`의 고어형) 비가 내리다, 비가 오다.</t>
+  </si>
+  <si>
+    <t>(abka+na) 하늘땅, 하늘땅만큼 많음, 무한히 많음. (아이들이 하는 말.)</t>
+  </si>
+  <si>
+    <t>선박의 이물에 물고기잡이용 후릿그물을 치기 위해 대어 놓은 판자 형태의 나무.</t>
+  </si>
+  <si>
+    <t>자작나무 껍질로 만든 통. =`uliyen`.</t>
+  </si>
+  <si>
+    <t>하늘이 안다, 하늘이 보고 있다. (나쁜 짓을 질책하는 말.) =`abka saru`.</t>
+  </si>
+  <si>
+    <t>천벌을 받을 놈, 뒈질 놈. (욕하는 말.) =`abka waru`, `abka awreo`.</t>
+  </si>
+  <si>
+    <t>가축 앞발의 넓적다리뼈. =`absilan`.</t>
+  </si>
+  <si>
+    <t>팔의 윗동 뼈. =`absilan`.</t>
+  </si>
+  <si>
+    <t>(-ka) 여위다.</t>
+  </si>
+  <si>
+    <t>여윔, 수척함.</t>
+  </si>
+  <si>
+    <t>어디, 어디로.</t>
+  </si>
+  <si>
+    <t>몹시, 어떻게, 어쩌니, 어찌 그리, 가장.</t>
+  </si>
+  <si>
+    <t>가축 앞발의 넓적다리뼈. =`absalan`.</t>
+  </si>
+  <si>
+    <t>팔의 윗동 뼈. =`absalan`.</t>
+  </si>
+  <si>
+    <t>(-ka) 마르다, 여위다. =`absambi`.</t>
+  </si>
+  <si>
+    <t>물건이 깨져 떨어지다.</t>
+  </si>
+  <si>
+    <t>화살의 깃이 떨어져 나가다.</t>
+  </si>
+  <si>
+    <t>꺾다, 나뭇가지를 치다, 나뭇가지를 다듬다. =`abdambi`, `abdalambi`.</t>
   </si>
 </sst>
 </file>
@@ -772,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -817,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -834,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -851,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -868,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -885,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -902,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -919,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -936,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -944,16 +1295,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -970,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -987,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -995,16 +1346,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1012,16 +1363,16 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1029,16 +1380,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1046,16 +1397,16 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1072,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1080,16 +1431,16 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1106,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1123,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1131,16 +1482,16 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1157,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1165,16 +1516,16 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1182,16 +1533,16 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1208,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1225,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1233,16 +1584,16 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1259,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1276,7 +1627,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1284,16 +1635,16 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1310,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1327,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1344,7 +1695,830 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>43</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>47</v>
+      </c>
+      <c r="B57" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>47</v>
+      </c>
+      <c r="B58" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>49</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>50</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>51</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>53</v>
+      </c>
+      <c r="B65" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>54</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" t="s">
+        <v>227</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>56</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>57</v>
+      </c>
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>58</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>59</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>60</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>61</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>62</v>
+      </c>
+      <c r="B74" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>63</v>
+      </c>
+      <c r="B75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>64</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>66</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>67</v>
+      </c>
+      <c r="B79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>68</v>
+      </c>
+      <c r="B80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>69</v>
+      </c>
+      <c r="B81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>70</v>
+      </c>
+      <c r="B82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>71</v>
+      </c>
+      <c r="B83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>72</v>
+      </c>
+      <c r="B84" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>73</v>
+      </c>
+      <c r="B85" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>74</v>
+      </c>
+      <c r="B86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1372,10 +2546,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1383,10 +2557,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1394,10 +2568,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1405,10 +2579,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1416,10 +2590,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1427,10 +2601,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1438,10 +2612,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1449,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1463,7 +2637,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1471,10 +2645,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1482,10 +2656,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1493,10 +2667,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1504,10 +2678,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1515,10 +2689,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1526,10 +2700,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1537,10 +2711,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1548,10 +2722,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1559,10 +2733,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1570,10 +2744,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1581,10 +2755,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1592,10 +2766,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1603,10 +2777,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1614,10 +2788,10 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1625,10 +2799,10 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1636,10 +2810,10 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1647,10 +2821,10 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1658,10 +2832,10 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1669,10 +2843,10 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1680,10 +2854,10 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
